--- a/utils/cleaners/Marco_consolidacion/Dimensión 6.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,26 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Nivel lider</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nivel Directivos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nivel Revision Plan</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Nivel lider</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dimensión 6</t>
         </is>
       </c>
@@ -451,6 +471,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -461,6 +501,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -471,6 +531,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -481,6 +561,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -491,6 +591,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -501,6 +621,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -511,6 +651,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -521,6 +681,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -531,6 +711,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -541,6 +741,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -551,6 +771,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -561,6 +801,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -571,6 +831,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -581,7 +861,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -591,6 +891,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -601,6 +921,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -611,6 +951,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -621,6 +981,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -631,6 +1011,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -641,6 +1041,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -651,6 +1071,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -661,6 +1101,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -671,6 +1131,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -681,6 +1161,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -691,7 +1191,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -701,6 +1221,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -711,6 +1251,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -721,6 +1281,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -731,6 +1311,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -741,6 +1341,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -751,7 +1371,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -761,6 +1401,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -771,6 +1431,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -781,7 +1461,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -791,6 +1491,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -801,6 +1521,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -811,6 +1551,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -821,7 +1581,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -831,6 +1611,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -841,7 +1641,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -851,6 +1671,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -861,6 +1701,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -871,6 +1731,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -881,6 +1761,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -891,6 +1791,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -901,6 +1821,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -911,6 +1851,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -921,6 +1881,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -931,6 +1911,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -941,6 +1941,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -951,6 +1971,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -961,6 +2001,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
@@ -971,6 +2031,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
@@ -981,6 +2061,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -991,6 +2091,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1001,6 +2121,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1011,6 +2151,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1021,6 +2181,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1031,6 +2211,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1041,6 +2241,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1051,6 +2271,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1061,6 +2301,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1071,6 +2331,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1081,6 +2361,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1091,6 +2391,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1101,6 +2421,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1111,6 +2451,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1121,6 +2481,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1131,6 +2511,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1141,6 +2541,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1151,6 +2571,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1161,6 +2601,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1171,6 +2631,26 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1181,6 +2661,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1191,6 +2691,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1201,6 +2721,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1211,6 +2751,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1221,7 +2781,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1231,6 +2811,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1241,6 +2841,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1251,7 +2871,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -1261,6 +2901,26 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1271,6 +2931,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -1281,7 +2961,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1291,6 +2991,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1301,6 +3021,26 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1311,6 +3051,26 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1321,6 +3081,26 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1331,6 +3111,26 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1341,6 +3141,26 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1354,6 +3174,26 @@
           <t>5</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1361,6 +3201,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1371,6 +3231,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1381,6 +3261,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1391,6 +3291,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1401,6 +3321,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1411,6 +3351,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1421,6 +3381,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1431,6 +3411,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
@@ -1441,6 +3441,26 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1451,6 +3471,26 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1461,6 +3501,26 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1471,6 +3531,26 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1481,6 +3561,26 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1491,6 +3591,26 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1501,6 +3621,26 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1511,6 +3651,26 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1521,6 +3681,26 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1531,6 +3711,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1541,6 +3741,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1551,6 +3771,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1561,6 +3801,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1571,7 +3831,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1581,6 +3861,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -1591,6 +3891,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1601,6 +3921,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1611,6 +3951,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1621,6 +3981,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1631,6 +4011,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1641,6 +4041,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1651,6 +4071,26 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1661,6 +4101,26 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1671,6 +4131,26 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1681,6 +4161,26 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1691,7 +4191,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1701,6 +4221,26 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1711,6 +4251,26 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1721,6 +4281,26 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1731,6 +4311,26 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1741,6 +4341,26 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1751,6 +4371,26 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
@@ -1761,6 +4401,26 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1771,6 +4431,26 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1781,7 +4461,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1791,6 +4491,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1801,6 +4521,26 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1811,6 +4551,26 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1821,6 +4581,26 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1831,7 +4611,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1841,6 +4641,26 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1854,6 +4674,26 @@
           <t>1B</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -1861,6 +4701,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1871,6 +4731,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -1881,6 +4761,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1891,6 +4791,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1901,6 +4821,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1914,6 +4854,26 @@
           <t>5</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1921,6 +4881,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -1931,6 +4911,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1941,6 +4941,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1951,6 +4971,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1961,6 +5001,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1971,6 +5031,26 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1981,6 +5061,26 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -1991,6 +5091,26 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2001,7 +5121,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2011,6 +5151,26 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2021,6 +5181,26 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2031,6 +5211,26 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2041,6 +5241,26 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2051,6 +5271,26 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2061,6 +5301,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2071,6 +5331,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2081,6 +5361,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2091,6 +5391,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2101,6 +5421,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2111,6 +5451,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2121,6 +5481,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2131,6 +5511,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2141,6 +5541,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2151,6 +5571,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2161,6 +5601,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2171,6 +5631,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2181,6 +5661,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2191,6 +5691,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2201,6 +5721,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2211,6 +5751,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2221,6 +5781,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2231,6 +5811,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2241,6 +5841,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2251,6 +5871,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2261,6 +5901,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
@@ -2271,6 +5931,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2281,6 +5961,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2291,6 +5991,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
@@ -2301,6 +6021,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2311,6 +6051,26 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2321,6 +6081,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2331,6 +6111,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2341,6 +6141,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2351,6 +6171,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2361,6 +6201,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2371,6 +6231,26 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2381,6 +6261,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2391,6 +6291,26 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2401,6 +6321,26 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2411,6 +6351,26 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2421,6 +6381,26 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2431,6 +6411,26 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2441,6 +6441,26 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -2451,6 +6471,26 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2461,6 +6501,26 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2471,6 +6531,26 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -2481,6 +6561,26 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2491,7 +6591,27 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2501,6 +6621,26 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2511,6 +6651,26 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2521,6 +6681,26 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2531,6 +6711,26 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2541,6 +6741,26 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2551,6 +6771,26 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
@@ -2561,6 +6801,26 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2571,6 +6831,26 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2581,6 +6861,26 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2591,6 +6891,26 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2601,6 +6921,26 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2611,6 +6951,26 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2621,6 +6981,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2631,6 +7011,26 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2641,6 +7041,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2651,6 +7071,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2661,6 +7101,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2671,6 +7131,26 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2681,6 +7161,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
@@ -2691,6 +7191,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2701,6 +7221,26 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2711,6 +7251,26 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2721,6 +7281,26 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2731,6 +7311,26 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2741,7 +7341,27 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2751,6 +7371,26 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2761,6 +7401,26 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2771,6 +7431,26 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
@@ -2781,6 +7461,26 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2791,6 +7491,26 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2801,6 +7521,26 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2811,6 +7551,26 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2821,6 +7581,26 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2831,6 +7611,26 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2841,6 +7641,26 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2851,6 +7671,26 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2861,7 +7701,27 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2871,6 +7731,26 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2881,6 +7761,26 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2891,6 +7791,26 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2901,6 +7821,26 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2911,6 +7851,26 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2921,6 +7881,26 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2931,6 +7911,26 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
@@ -2944,12 +7944,52 @@
           <t>0</t>
         </is>
       </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
         <v>234</v>
       </c>
       <c r="B252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimensión 6.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 6.xlsx
@@ -450,10 +450,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3281,19 +3281,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4324,16 +4324,16 @@
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5267,13 +5267,13 @@
         <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:6">

--- a/utils/cleaners/Marco_consolidacion/Dimensión 6.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimensión 6.xlsx
@@ -1190,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1644,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -4684,7 +4684,7 @@
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
@@ -4693,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4847,13 +4847,13 @@
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E222" t="s">
         <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5464,7 +5464,7 @@
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
